--- a/ConfigurationFolder/testscript/Testcase.xlsx
+++ b/ConfigurationFolder/testscript/Testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>TC_EC_0003</t>
   </si>
@@ -54,9 +54,6 @@
     <t>TC_EC_0004</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Wrong data Open amazon website and add echo to iteam then go to order page</t>
   </si>
   <si>
@@ -67,6 +64,12 @@
   </si>
   <si>
     <t>fetch the particular Pet in Petstore swagger (API Testing)</t>
+  </si>
+  <si>
+    <t>fetch the particular Pet in Petstore swagger which is not in database</t>
+  </si>
+  <si>
+    <t>TC_EC_0005</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,7 +442,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -453,13 +456,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -467,13 +470,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -481,12 +484,26 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
     </row>
